--- a/teaching/traditional_assets/database/data/mexico/mexico_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1565</v>
+        <v>0.128</v>
       </c>
       <c r="E2">
-        <v>0.1165</v>
+        <v>0.161</v>
       </c>
       <c r="F2">
-        <v>0.0951</v>
+        <v>-0.0211</v>
       </c>
       <c r="G2">
-        <v>0.1654378180869111</v>
+        <v>0.2846318727879966</v>
       </c>
       <c r="H2">
-        <v>0.1606746704945844</v>
+        <v>0.2787498130701361</v>
       </c>
       <c r="I2">
-        <v>0.1622872589314197</v>
+        <v>0.2290340640891652</v>
       </c>
       <c r="J2">
-        <v>0.1189454377331979</v>
+        <v>0.181932065945081</v>
       </c>
       <c r="K2">
-        <v>543.9</v>
+        <v>236.3</v>
       </c>
       <c r="L2">
-        <v>0.1774435599634608</v>
+        <v>0.1177907382483426</v>
       </c>
       <c r="M2">
-        <v>233.199</v>
+        <v>203.9647</v>
       </c>
       <c r="N2">
-        <v>0.04733371222116224</v>
+        <v>0.0520066039419669</v>
       </c>
       <c r="O2">
-        <v>0.4287534473248759</v>
+        <v>0.8631599661447312</v>
       </c>
       <c r="P2">
-        <v>186.43</v>
+        <v>135.4427</v>
       </c>
       <c r="Q2">
-        <v>0.03784074532648629</v>
+        <v>0.03453497029501007</v>
       </c>
       <c r="R2">
-        <v>0.3427652141937856</v>
+        <v>0.5731811256876851</v>
       </c>
       <c r="S2">
-        <v>46.769</v>
+        <v>68.52199999999999</v>
       </c>
       <c r="T2">
-        <v>0.2005540332505714</v>
+        <v>0.3359502894373389</v>
       </c>
       <c r="U2">
-        <v>1684.9</v>
+        <v>1744.2</v>
       </c>
       <c r="V2">
-        <v>0.3419936265654495</v>
+        <v>0.4447334200260078</v>
       </c>
       <c r="W2">
-        <v>0.154659304481408</v>
+        <v>0.1053369667400021</v>
       </c>
       <c r="X2">
-        <v>0.05586020636541045</v>
+        <v>0.03182182098107456</v>
       </c>
       <c r="Y2">
-        <v>0.09879909811599757</v>
+        <v>0.07351514575892751</v>
       </c>
       <c r="Z2">
-        <v>0.2479446713823735</v>
+        <v>0.1636313741420596</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.002132674291460412</v>
       </c>
       <c r="AB2">
-        <v>0.03546310534999222</v>
+        <v>0.02795785722916758</v>
       </c>
       <c r="AC2">
-        <v>-0.0329283568710773</v>
+        <v>-0.02531224957115663</v>
       </c>
       <c r="AD2">
-        <v>10460</v>
+        <v>7857.3</v>
       </c>
       <c r="AE2">
-        <v>177.8354696170612</v>
+        <v>117.6738201536282</v>
       </c>
       <c r="AF2">
-        <v>10637.83546961706</v>
+        <v>7974.973820153628</v>
       </c>
       <c r="AG2">
-        <v>8952.935469617061</v>
+        <v>6230.773820153629</v>
       </c>
       <c r="AH2">
-        <v>0.6834663000629074</v>
+        <v>0.6703419688829351</v>
       </c>
       <c r="AI2">
-        <v>0.7446108927759152</v>
+        <v>0.6835043207967004</v>
       </c>
       <c r="AJ2">
-        <v>0.6450411099927881</v>
+        <v>0.6137076725330417</v>
       </c>
       <c r="AK2">
-        <v>0.7104638550756803</v>
+        <v>0.6278759984129556</v>
       </c>
       <c r="AL2">
-        <v>280.3</v>
+        <v>315.136</v>
       </c>
       <c r="AM2">
-        <v>270.1</v>
+        <v>288.576</v>
       </c>
       <c r="AN2">
-        <v>83.53965338231771</v>
+        <v>16.10762607626076</v>
       </c>
       <c r="AO2">
-        <v>1.769889404209775</v>
+        <v>1.432397441104793</v>
       </c>
       <c r="AP2">
-        <v>71.50335811530279</v>
+        <v>12.77321406345557</v>
       </c>
       <c r="AQ2">
-        <v>1.836727138097001</v>
+        <v>1.564232645819472</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.101</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E3">
-        <v>0.128</v>
+        <v>0.226</v>
       </c>
       <c r="F3">
-        <v>0.0699</v>
+        <v>0.0751</v>
       </c>
       <c r="G3">
-        <v>0.5923344947735192</v>
+        <v>0.6188769414575865</v>
       </c>
       <c r="H3">
-        <v>0.5075493612078978</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="I3">
-        <v>0.5122931509326115</v>
+        <v>0.525089605734767</v>
       </c>
       <c r="J3">
-        <v>0.3648148196035264</v>
+        <v>0.3628708587159464</v>
       </c>
       <c r="K3">
-        <v>70.2</v>
+        <v>67</v>
       </c>
       <c r="L3">
-        <v>0.4076655052264809</v>
+        <v>0.4002389486260454</v>
       </c>
       <c r="M3">
-        <v>53.5</v>
+        <v>48.6</v>
       </c>
       <c r="N3">
-        <v>0.04055795618224547</v>
+        <v>0.03458090223423936</v>
       </c>
       <c r="O3">
-        <v>0.7621082621082621</v>
+        <v>0.7253731343283583</v>
       </c>
       <c r="P3">
-        <v>53.5</v>
+        <v>48.6</v>
       </c>
       <c r="Q3">
-        <v>0.04055795618224547</v>
+        <v>0.03458090223423936</v>
       </c>
       <c r="R3">
-        <v>0.7621082621082621</v>
+        <v>0.7253731343283583</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,70 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>142.5</v>
+        <v>159.2</v>
       </c>
       <c r="V3">
-        <v>0.1080282010461679</v>
+        <v>0.1132773587590721</v>
       </c>
       <c r="W3">
-        <v>0.2103055721989215</v>
+        <v>0.2019897497738921</v>
       </c>
       <c r="X3">
-        <v>0.02883065378759489</v>
+        <v>0.01965885483020477</v>
       </c>
       <c r="Y3">
-        <v>0.1814749184113266</v>
+        <v>0.1823308949436873</v>
       </c>
       <c r="Z3">
-        <v>4.266008992742155</v>
+        <v>3.938823529411765</v>
       </c>
       <c r="AA3">
-        <v>1.556303301114251</v>
+        <v>1.429284276448222</v>
       </c>
       <c r="AB3">
-        <v>0.02880515526503365</v>
+        <v>0.01969341362710942</v>
       </c>
       <c r="AC3">
-        <v>1.527498145849217</v>
+        <v>1.409590862821112</v>
       </c>
       <c r="AD3">
-        <v>11.5</v>
+        <v>13.4</v>
       </c>
       <c r="AE3">
-        <v>4.965597047021513</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>16.46559704702151</v>
+        <v>13.4</v>
       </c>
       <c r="AG3">
-        <v>-126.0344029529785</v>
+        <v>-145.8</v>
       </c>
       <c r="AH3">
-        <v>0.01232855734186885</v>
+        <v>0.009444601071327881</v>
       </c>
       <c r="AI3">
-        <v>0.04570405051713122</v>
+        <v>0.0391812865497076</v>
       </c>
       <c r="AJ3">
-        <v>-0.1056391226642764</v>
+        <v>-0.1157510320736742</v>
       </c>
       <c r="AK3">
-        <v>-0.5787617725758777</v>
+        <v>-0.7975929978118159</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="AM3">
-        <v>-10.2</v>
+        <v>-7.423999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.1243108853096963</v>
+        <v>0.1490545050055617</v>
+      </c>
+      <c r="AO3">
+        <v>163.9925373134328</v>
       </c>
       <c r="AP3">
-        <v>-1.362386800918587</v>
+        <v>-1.621802002224694</v>
       </c>
       <c r="AQ3">
-        <v>-8.333333333333334</v>
+        <v>-11.83997844827586</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unifin Financiera, S. A. B. de C. V., Sociedad Financiera de Objeto Múltiple, Entidad No Regulada (BMV:UNIFIN A)</t>
+          <t>Unifin Financiera, S. A. B. de C. V. (BMV:UNIFIN A)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,115 +865,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.379</v>
+        <v>0.135</v>
       </c>
       <c r="E4">
-        <v>0.349</v>
+        <v>0.0973</v>
       </c>
       <c r="G4">
-        <v>0.3904954694428379</v>
+        <v>0.9184515621929652</v>
       </c>
       <c r="H4">
-        <v>0.3904954694428379</v>
+        <v>0.9184515621929652</v>
       </c>
       <c r="I4">
-        <v>0.3962791594370542</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J4">
-        <v>0.301220598655362</v>
+        <v>0.5728429985855729</v>
       </c>
       <c r="K4">
-        <v>99.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="L4">
-        <v>0.09610564873722768</v>
+        <v>0.1432501473766948</v>
       </c>
       <c r="M4">
-        <v>17.8</v>
+        <v>125.2</v>
       </c>
       <c r="N4">
-        <v>0.03162195771895542</v>
+        <v>0.1994901210962396</v>
       </c>
       <c r="O4">
-        <v>0.1785356068204614</v>
+        <v>1.717421124828532</v>
       </c>
       <c r="P4">
-        <v>17.8</v>
+        <v>65.2</v>
       </c>
       <c r="Q4">
-        <v>0.03162195771895542</v>
+        <v>0.1038878266411727</v>
       </c>
       <c r="R4">
-        <v>0.1785356068204614</v>
+        <v>0.8943758573388203</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.4792332268370607</v>
       </c>
       <c r="U4">
-        <v>287.9</v>
+        <v>136</v>
       </c>
       <c r="V4">
-        <v>0.5114585183869248</v>
+        <v>0.2166985340981517</v>
       </c>
       <c r="W4">
-        <v>0.1535263319987681</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="X4">
-        <v>0.06481012806924361</v>
+        <v>0.055631039971481</v>
       </c>
       <c r="Y4">
-        <v>0.08871620392952451</v>
+        <v>0.09110809046330162</v>
       </c>
       <c r="Z4">
-        <v>0.3402092283474896</v>
+        <v>0.1567582552981764</v>
       </c>
       <c r="AA4">
-        <v>0.1024780274309096</v>
+        <v>0.08979786901805016</v>
       </c>
       <c r="AB4">
-        <v>0.04156931912475038</v>
+        <v>0.0427819487316305</v>
       </c>
       <c r="AC4">
-        <v>0.06090870830615921</v>
+        <v>0.04701592028641966</v>
       </c>
       <c r="AD4">
-        <v>3037.5</v>
+        <v>3140.2</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3037.5</v>
+        <v>3140.2</v>
       </c>
       <c r="AG4">
-        <v>2749.6</v>
+        <v>3004.2</v>
       </c>
       <c r="AH4">
-        <v>0.8436562604155093</v>
+        <v>0.8334306491852009</v>
       </c>
       <c r="AI4">
-        <v>0.8593860517753572</v>
+        <v>0.8463466566045872</v>
       </c>
       <c r="AJ4">
-        <v>0.8300679245283019</v>
+        <v>0.8271931273748555</v>
       </c>
       <c r="AK4">
-        <v>0.8469167744717551</v>
+        <v>0.8405002378088018</v>
       </c>
       <c r="AL4">
-        <v>280.3</v>
+        <v>314.6</v>
       </c>
       <c r="AM4">
-        <v>280.3</v>
+        <v>296</v>
+      </c>
+      <c r="AN4">
+        <v>8.572754572754572</v>
       </c>
       <c r="AO4">
-        <v>1.466642882625758</v>
+        <v>1.155435473617292</v>
+      </c>
+      <c r="AP4">
+        <v>8.2014742014742</v>
       </c>
       <c r="AQ4">
-        <v>1.466642882625758</v>
+        <v>1.228040540540541</v>
       </c>
     </row>
     <row r="5">
@@ -990,10 +999,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.153</v>
+        <v>0.121</v>
       </c>
       <c r="E5">
-        <v>-0.0176</v>
+        <v>0.161</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1008,85 +1017,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>70.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L5">
-        <v>0.1724815724815725</v>
+        <v>0.1695510408828693</v>
       </c>
       <c r="M5">
-        <v>12.899</v>
+        <v>4.76</v>
       </c>
       <c r="N5">
-        <v>0.03803892657033323</v>
+        <v>0.0146551724137931</v>
       </c>
       <c r="O5">
-        <v>0.1837464387464387</v>
+        <v>0.07041420118343196</v>
       </c>
       <c r="P5">
-        <v>12.7</v>
+        <v>3.17</v>
       </c>
       <c r="Q5">
-        <v>0.0374520790327337</v>
+        <v>0.009759852216748768</v>
       </c>
       <c r="R5">
-        <v>0.1809116809116809</v>
+        <v>0.04689349112426036</v>
       </c>
       <c r="S5">
-        <v>0.1989999999999998</v>
+        <v>1.59</v>
       </c>
       <c r="T5">
-        <v>0.01542755252345142</v>
+        <v>0.3340336134453781</v>
       </c>
       <c r="U5">
-        <v>801.2</v>
+        <v>541.2</v>
       </c>
       <c r="V5">
-        <v>2.362724859923326</v>
+        <v>1.666256157635468</v>
       </c>
       <c r="W5">
-        <v>0.1557922769640479</v>
+        <v>0.1396694214876033</v>
       </c>
       <c r="X5">
-        <v>0.05699504802734218</v>
+        <v>0.02271271159162502</v>
       </c>
       <c r="Y5">
-        <v>0.09879722893670576</v>
+        <v>0.1169567098959783</v>
       </c>
       <c r="Z5">
-        <v>0.2695364238410596</v>
+        <v>0.3572260550129917</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.032546589942279</v>
+        <v>0.02517769419386753</v>
       </c>
       <c r="AC5">
-        <v>-0.032546589942279</v>
+        <v>-0.02517769419386753</v>
       </c>
       <c r="AD5">
-        <v>1433.3</v>
+        <v>140.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1433.3</v>
+        <v>140.8</v>
       </c>
       <c r="AG5">
-        <v>632.0999999999999</v>
+        <v>-400.4</v>
       </c>
       <c r="AH5">
-        <v>0.8086774994357933</v>
+        <v>0.302405498281787</v>
       </c>
       <c r="AI5">
-        <v>0.7469383500964093</v>
+        <v>0.2147323471099588</v>
       </c>
       <c r="AJ5">
-        <v>0.6508443163097198</v>
+        <v>5.296296296296295</v>
       </c>
       <c r="AK5">
-        <v>0.5655363693298738</v>
+        <v>-3.49694323144105</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1112,13 +1121,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0919</v>
-      </c>
-      <c r="E6">
-        <v>-0.0005099999999999999</v>
+        <v>-0.0286</v>
       </c>
       <c r="F6">
-        <v>0.139</v>
+        <v>-0.0211</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,91 +1133,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.00204047747605395</v>
+        <v>0.01524331122523977</v>
       </c>
       <c r="J6">
-        <v>-0.001443307776158005</v>
+        <v>0.01524331122523977</v>
       </c>
       <c r="K6">
-        <v>161.2</v>
+        <v>-49.2</v>
       </c>
       <c r="L6">
-        <v>0.1755226480836237</v>
+        <v>-0.09298809298809299</v>
       </c>
       <c r="M6">
-        <v>67.02</v>
+        <v>1.92</v>
       </c>
       <c r="N6">
-        <v>0.04172581247665297</v>
+        <v>0.002473270642792735</v>
       </c>
       <c r="O6">
-        <v>0.4157568238213399</v>
+        <v>-0.03902439024390243</v>
       </c>
       <c r="P6">
-        <v>57.5</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.03579877972855186</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.3566997518610422</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>9.519999999999996</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
-        <v>0.1420471501044464</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>260.2</v>
+        <v>474.7</v>
       </c>
       <c r="V6">
-        <v>0.1619972606151164</v>
+        <v>0.6114904031946413</v>
       </c>
       <c r="W6">
-        <v>0.1726094870971196</v>
+        <v>-0.04869840641393646</v>
       </c>
       <c r="X6">
-        <v>0.03372341382487385</v>
+        <v>0.03302004995999393</v>
       </c>
       <c r="Y6">
-        <v>0.1388860732722458</v>
+        <v>-0.08171845637393038</v>
       </c>
       <c r="Z6">
-        <v>0.5301102284899163</v>
+        <v>0.2798177193848991</v>
       </c>
       <c r="AA6">
-        <v>-0.0007651122150003929</v>
+        <v>0.004265348582920823</v>
       </c>
       <c r="AB6">
-        <v>0.03254501158487521</v>
+        <v>0.02971215353136656</v>
       </c>
       <c r="AC6">
-        <v>-0.0333101237998756</v>
+        <v>-0.02544680494844574</v>
       </c>
       <c r="AD6">
-        <v>1023.1</v>
+        <v>1329.7</v>
       </c>
       <c r="AE6">
-        <v>172.8698725700397</v>
+        <v>117.6738201536282</v>
       </c>
       <c r="AF6">
-        <v>1195.96987257004</v>
+        <v>1447.373820153628</v>
       </c>
       <c r="AG6">
-        <v>935.7698725700398</v>
+        <v>972.6738201536282</v>
       </c>
       <c r="AH6">
-        <v>0.426801345727532</v>
+        <v>0.6508930433212694</v>
       </c>
       <c r="AI6">
-        <v>0.5414887428053664</v>
+        <v>0.5884652895123202</v>
       </c>
       <c r="AJ6">
-        <v>0.3681278376536919</v>
+        <v>0.5561397254466561</v>
       </c>
       <c r="AK6">
-        <v>0.4802588357888005</v>
+        <v>0.4900431504902129</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1220,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>31.2874617737003</v>
+        <v>42.07911392405063</v>
       </c>
       <c r="AP6">
-        <v>28.61681567492476</v>
+        <v>30.78081709346925</v>
       </c>
     </row>
     <row r="7">
@@ -1243,10 +1249,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.16</v>
+        <v>0.154</v>
       </c>
       <c r="E7">
-        <v>0.107</v>
+        <v>0.176</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1261,85 +1267,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.1</v>
+        <v>29.9</v>
       </c>
       <c r="L7">
-        <v>0.1796315250767656</v>
+        <v>0.1931524547803617</v>
       </c>
       <c r="M7">
-        <v>37.53</v>
+        <v>2.7947</v>
       </c>
       <c r="N7">
-        <v>0.06141384388807069</v>
+        <v>0.005013814137064944</v>
       </c>
       <c r="O7">
-        <v>1.069230769230769</v>
+        <v>0.09346822742474915</v>
       </c>
       <c r="P7">
-        <v>2.83</v>
+        <v>2.7727</v>
       </c>
       <c r="Q7">
-        <v>0.004630993290787105</v>
+        <v>0.004974345174022246</v>
       </c>
       <c r="R7">
-        <v>0.08062678062678062</v>
+        <v>0.09273244147157191</v>
       </c>
       <c r="S7">
-        <v>34.7</v>
+        <v>0.0219999999999998</v>
       </c>
       <c r="T7">
-        <v>0.9245936584066081</v>
+        <v>0.007872043510931334</v>
       </c>
       <c r="U7">
-        <v>159.8</v>
+        <v>415</v>
       </c>
       <c r="V7">
-        <v>0.2614956635575192</v>
+        <v>0.7445281664872623</v>
       </c>
       <c r="W7">
-        <v>0.08468033775633294</v>
+        <v>0.07100451199240085</v>
       </c>
       <c r="X7">
-        <v>0.0621734837301845</v>
+        <v>0.0306235920021552</v>
       </c>
       <c r="Y7">
-        <v>0.02250685402614844</v>
+        <v>0.04038091999024565</v>
       </c>
       <c r="Z7">
-        <v>0.0515281769995517</v>
+        <v>0.0466574235939478</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03837962075770545</v>
+        <v>0.0262035609269686</v>
       </c>
       <c r="AC7">
-        <v>-0.03837962075770545</v>
+        <v>-0.0262035609269686</v>
       </c>
       <c r="AD7">
-        <v>3056.5</v>
+        <v>853.8</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>3056.5</v>
+        <v>853.8</v>
       </c>
       <c r="AG7">
-        <v>2896.7</v>
+        <v>438.8</v>
       </c>
       <c r="AH7">
-        <v>0.8333787763114844</v>
+        <v>0.6050170068027211</v>
       </c>
       <c r="AI7">
-        <v>0.865643320399898</v>
+        <v>0.64903078677309</v>
       </c>
       <c r="AJ7">
-        <v>0.8257882433434062</v>
+        <v>0.4404738004416784</v>
       </c>
       <c r="AK7">
-        <v>0.8592744208121977</v>
+        <v>0.4872848417545808</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1365,13 +1371,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.27</v>
+        <v>0.143</v>
       </c>
       <c r="E8">
-        <v>0.126</v>
+        <v>-0.046</v>
       </c>
       <c r="F8">
-        <v>0.0951</v>
+        <v>-0.08560000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1386,85 +1392,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>107.5</v>
+        <v>48.1</v>
       </c>
       <c r="L8">
-        <v>0.3210872162485066</v>
+        <v>0.19457928802589</v>
       </c>
       <c r="M8">
-        <v>44.45</v>
+        <v>20.69</v>
       </c>
       <c r="N8">
-        <v>0.09103010444398936</v>
+        <v>0.08980034722222222</v>
       </c>
       <c r="O8">
-        <v>0.4134883720930233</v>
+        <v>0.4301455301455301</v>
       </c>
       <c r="P8">
-        <v>42.1</v>
+        <v>15.7</v>
       </c>
       <c r="Q8">
-        <v>0.08621748924841287</v>
+        <v>0.0681423611111111</v>
       </c>
       <c r="R8">
-        <v>0.3916279069767442</v>
+        <v>0.3264033264033264</v>
       </c>
       <c r="S8">
-        <v>2.350000000000001</v>
+        <v>4.989999999999998</v>
       </c>
       <c r="T8">
-        <v>0.05286839145106865</v>
+        <v>0.2411793136781053</v>
       </c>
       <c r="U8">
-        <v>33.3</v>
+        <v>18.1</v>
       </c>
       <c r="V8">
-        <v>0.06819578128199877</v>
+        <v>0.07855902777777778</v>
       </c>
       <c r="W8">
-        <v>0.1392126392126392</v>
+        <v>0.06155618121320706</v>
       </c>
       <c r="X8">
-        <v>0.05472536470347872</v>
+        <v>0.09397867646572637</v>
       </c>
       <c r="Y8">
-        <v>0.08448727450916049</v>
+        <v>-0.03242249525251931</v>
       </c>
       <c r="Z8">
-        <v>0.149584487534626</v>
+        <v>0.0934169752853148</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04000048680107975</v>
+        <v>0.04091607294513412</v>
       </c>
       <c r="AC8">
-        <v>-0.04000048680107975</v>
+        <v>-0.04091607294513412</v>
       </c>
       <c r="AD8">
-        <v>1898.1</v>
+        <v>2379.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1898.1</v>
+        <v>2379.4</v>
       </c>
       <c r="AG8">
-        <v>1864.8</v>
+        <v>2361.3</v>
       </c>
       <c r="AH8">
-        <v>0.7953821656050954</v>
+        <v>0.9117173729787723</v>
       </c>
       <c r="AI8">
-        <v>0.6944607054002634</v>
+        <v>0.7471347379658996</v>
       </c>
       <c r="AJ8">
-        <v>0.7924865071607666</v>
+        <v>0.9111008218543812</v>
       </c>
       <c r="AK8">
-        <v>0.6906922478610319</v>
+        <v>0.7456893829343776</v>
       </c>
       <c r="AL8">
         <v>0</v>
